--- a/individual_results/avey/416.xlsx
+++ b/individual_results/avey/416.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0.5</v>
@@ -599,9 +599,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -614,9 +612,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -631,9 +627,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -646,9 +640,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>0.5555555555555556</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -666,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1065437321815508</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -693,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.8262346571285599</v>
@@ -739,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -785,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -831,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -858,9 +850,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
